--- a/regiones.xlsx
+++ b/regiones.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarromanzuniga/Documents/ESCUELA/IngSisSem7/Inteligencia de negocios/Medio_Termino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57AEF7A6-B266-A54B-9ECE-AC24568CF627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D0624A-EE06-DA4C-9E55-BA388B2D4861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{8DD3207C-5321-1E47-BFFC-77AA4CC1005F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
   <si>
     <t>REGIONES:</t>
   </si>
@@ -351,19 +351,82 @@
   </si>
   <si>
     <t>dos</t>
+  </si>
+  <si>
+    <t>CASE FECHAS</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>CASE credit_limit WHEN 100 THEN 'Low'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   WHEN 5000 THEN 'High'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ELSE 'Medium' END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FROM customers;</t>
+  </si>
+  <si>
+    <t>Case T.MES</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,11 +449,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEE3914-D11B-5948-A27B-8C953072981C}">
-  <dimension ref="B6:K70"/>
+  <dimension ref="B6:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="86" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,6 +780,7 @@
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.5" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -1042,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.XLOOKUP(E19,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" ref="D19:D27" si="4">_xlfn.XLOOKUP(E19,$K$9:$K$40,$I$9:$I$40)</f>
         <v>AGU</v>
       </c>
       <c r="E19" t="s">
@@ -1075,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.XLOOKUP(E20,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>COL</v>
       </c>
       <c r="E20" t="s">
@@ -1108,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.XLOOKUP(E21,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>GUA</v>
       </c>
       <c r="E21" t="s">
@@ -1141,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.XLOOKUP(E22,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>JAL</v>
       </c>
       <c r="E22" t="s">
@@ -1174,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.XLOOKUP(E23,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>MIC</v>
       </c>
       <c r="E23" t="s">
@@ -1207,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.XLOOKUP(E24,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>NAY</v>
       </c>
       <c r="E24" t="s">
@@ -1240,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.XLOOKUP(E25,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>QUE</v>
       </c>
       <c r="E25" t="s">
@@ -1273,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.XLOOKUP(E26,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>SLP</v>
       </c>
       <c r="E26" t="s">
@@ -1306,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.XLOOKUP(E27,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="4"/>
         <v>ZAC</v>
       </c>
       <c r="E27" t="s">
@@ -1350,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.XLOOKUP(E29,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" ref="D29:D34" si="5">_xlfn.XLOOKUP(E29,$K$9:$K$40,$I$9:$I$40)</f>
         <v>DFE</v>
       </c>
       <c r="E29" t="s">
@@ -1383,7 +1448,7 @@
         <v>36</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.XLOOKUP(E30,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="5"/>
         <v>EDM</v>
       </c>
       <c r="E30" t="s">
@@ -1416,7 +1481,7 @@
         <v>36</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.XLOOKUP(E31,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="5"/>
         <v>HID</v>
       </c>
       <c r="E31" t="s">
@@ -1449,7 +1514,7 @@
         <v>36</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.XLOOKUP(E32,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="5"/>
         <v>MOR</v>
       </c>
       <c r="E32" t="s">
@@ -1482,7 +1547,7 @@
         <v>36</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.XLOOKUP(E33,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="5"/>
         <v>PUE</v>
       </c>
       <c r="E33" t="s">
@@ -1515,7 +1580,7 @@
         <v>36</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.XLOOKUP(E34,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="5"/>
         <v>TLA</v>
       </c>
       <c r="E34" t="s">
@@ -1560,7 +1625,7 @@
         <v>26</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.XLOOKUP(E36,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" ref="D36:D43" si="6">_xlfn.XLOOKUP(E36,$K$9:$K$40,$I$9:$I$40)</f>
         <v>CAM</v>
       </c>
       <c r="E36" t="s">
@@ -1593,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.XLOOKUP(E37,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
       <c r="E37" t="s">
@@ -1626,7 +1691,7 @@
         <v>26</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.XLOOKUP(E38,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>GUE</v>
       </c>
       <c r="E38" t="s">
@@ -1659,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.XLOOKUP(E39,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>OAX</v>
       </c>
       <c r="E39" t="s">
@@ -1692,7 +1757,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.XLOOKUP(E40,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>QUI</v>
       </c>
       <c r="E40" t="s">
@@ -1725,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.XLOOKUP(E41,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>TAB</v>
       </c>
       <c r="E41" t="s">
@@ -1748,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.XLOOKUP(E42,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>VEC</v>
       </c>
       <c r="E42" t="s">
@@ -1771,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.XLOOKUP(E43,$K$9:$K$40,$I$9:$I$40)</f>
+        <f t="shared" si="6"/>
         <v>YUC</v>
       </c>
       <c r="E43" t="s">
@@ -1850,13 +1915,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E68">
         <v>1</v>
       </c>
@@ -1864,7 +1929,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E69">
         <v>2</v>
       </c>
@@ -1872,12 +1937,187 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:9" ht="17" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>103</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="I71" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="I72" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="I73" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>105</v>
+      </c>
+      <c r="H76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H77" t="str">
+        <f>"WHEN "&amp;F77&amp;" THEN '"&amp;G77&amp;"'"</f>
+        <v>WHEN 1 THEN 'Enero'</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" ref="H78:H88" si="7">"WHEN "&amp;F78&amp;" THEN '"&amp;G78&amp;"'"</f>
+        <v>WHEN 2 THEN 'Febrero'</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 3 THEN 'Marzo'</v>
+      </c>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 4 THEN 'Abril'</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 5 THEN 'Mayo'</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 6 THEN 'Junio'</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 7 THEN 'Julio'</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 8 THEN 'Agosto'</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 9 THEN 'Septiembre'</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 10 THEN 'Octubre'</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 11 THEN 'Noviembre'</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="7"/>
+        <v>WHEN 12 THEN 'Diciembre'</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
